--- a/NEW HR/RODRIGUEZ, JERALD.xlsx
+++ b/NEW HR/RODRIGUEZ, JERALD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/17,18,20/2023</t>
   </si>
 </sst>
 </file>
@@ -1577,10 +1580,10 @@
   </sheetPr>
   <dimension ref="A2:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1753,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1760,7 +1763,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3152,15 +3155,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="41">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="10"/>
@@ -3710,10 +3717,10 @@
   </sheetPr>
   <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,7 +3890,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3893,7 +3900,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4557,7 +4564,9 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="B39" s="21"/>
       <c r="C39" s="14"/>
       <c r="D39" s="40"/>
@@ -4570,23 +4579,35 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="C40" s="14"/>
       <c r="D40" s="40"/>
       <c r="E40" s="10"/>
       <c r="F40" s="21"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="40"/>
+      <c r="H40" s="40">
+        <v>1</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="K40" s="48">
+        <v>44993</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C41" s="14"/>
-      <c r="D41" s="40"/>
+      <c r="D41" s="40">
+        <v>3</v>
+      </c>
       <c r="E41" s="10"/>
       <c r="F41" s="21"/>
       <c r="G41" s="14" t="str">
@@ -4596,7 +4617,9 @@
       <c r="H41" s="40"/>
       <c r="I41" s="10"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="K41" s="21" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>

--- a/NEW HR/RODRIGUEZ, JERALD.xlsx
+++ b/NEW HR/RODRIGUEZ, JERALD.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>3/17,18,20/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
   </si>
 </sst>
 </file>
@@ -671,17 +674,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -691,6 +691,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,7 +1586,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,14 +1616,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1632,16 +1635,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>36194</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1655,14 +1658,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1695,18 +1698,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1753,7 +1756,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1763,7 +1766,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3175,15 +3178,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
+      <c r="A79" s="41">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="10"/>
@@ -3191,7 +3198,9 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="41">
+        <v>45047</v>
+      </c>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
       <c r="D80" s="40"/>
@@ -3672,17 +3681,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3718,9 +3727,9 @@
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,14 +3759,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3769,16 +3778,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>36194</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3792,14 +3801,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3832,18 +3843,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3900,7 +3911,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4622,8 +4633,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="C42" s="14"/>
       <c r="D42" s="40"/>
       <c r="E42" s="10"/>
@@ -4632,10 +4647,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="40"/>
+      <c r="H42" s="40">
+        <v>1</v>
+      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="K42" s="48">
+        <v>45066</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
